--- a/data/evaluation/evaluation_South_Summer_Cabbage.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Cabbage.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4575.881440148175</v>
+        <v>4636.189791783397</v>
       </c>
       <c r="C4" t="n">
-        <v>29495754.92857218</v>
+        <v>30178032.20027052</v>
       </c>
       <c r="D4" t="n">
-        <v>5430.999441039575</v>
+        <v>5493.453576783053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4015280110066443</v>
+        <v>0.3876845329594787</v>
       </c>
     </row>
     <row r="5">
